--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,74 +220,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,7 +239,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -342,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,18 +520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -629,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -637,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -645,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -653,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -661,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -669,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -677,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -685,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -693,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -701,7 +633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -709,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -717,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -725,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -733,7 +665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -741,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -749,7 +681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -757,7 +689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -765,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -773,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -781,7 +713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -789,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -797,7 +729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="变量地址" sheetId="1" r:id="rId1"/>
+    <sheet name="串口指令" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>变量名称</t>
   </si>
@@ -154,9 +155,6 @@
     <t>0x0027</t>
   </si>
   <si>
-    <t>0：手动模式(停止)  1：自动模式(开始)</t>
-  </si>
-  <si>
     <t>运行画面_运行模式</t>
   </si>
   <si>
@@ -170,6 +168,93 @@
   </si>
   <si>
     <t>运行画面_复位按钮</t>
+  </si>
+  <si>
+    <t>0：手动模式(停止)  1：自动模式(停止) 2：手动模式(开始) 3：自动模式(开始)</t>
+  </si>
+  <si>
+    <t>显示屏-&gt;单片机</t>
+  </si>
+  <si>
+    <t>指令名称</t>
+  </si>
+  <si>
+    <t>指令代码</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 28 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 01 01 00 00 -&gt; 5A A5 06 83 00 01 01 FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 03 01 00 00 -&gt; 5A A5 06 83 00 03 01 FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 05 01 00 00 -&gt; 5A A5 06 83 00 05 01 FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 07 01 00 00 -&gt; 5A A5 06 83 00 07 01 FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 09 01 00 00 -&gt; 5A A5 06 83 00 09 01 FF FF</t>
+  </si>
+  <si>
+    <t>单片机-&gt;显示屏</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 23 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 24 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 25 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 26 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 27 01 00 00</t>
+  </si>
+  <si>
+    <t>5A A5 05 82 00 00 00 00 -&gt; 5A A5 05 82 00 00 00 03</t>
+  </si>
+  <si>
+    <t>5A A5 05 82 00 1B 00 00 -&gt; 5A A5 05 82 00 1B FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 05 82 00 1D 00 00 -&gt; 5A A5 05 82 00 1D FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 05 82 00 1F 00 00 -&gt; 5A A5 05 82 00 1F FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 05 82 00 21 00 00 -&gt; 5A A5 05 82 00 21 FF FF</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 0B 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 0D 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 0F 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 11 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 13 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 15 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 17 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>5A A5 06 83 00 19 01 00 00 -&gt;</t>
   </si>
 </sst>
 </file>
@@ -211,9 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,15 +608,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,7 +787,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -715,7 +803,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -731,13 +819,266 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>变量名称</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>5A A5 06 83 00 19 01 00 00 -&gt;</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>板材参数_递减1</t>
+  </si>
+  <si>
+    <t>板材参数_递减2</t>
+  </si>
+  <si>
+    <t>板材参数_递减3</t>
+  </si>
+  <si>
+    <t>板材参数_递减4</t>
+  </si>
+  <si>
+    <t>0x0032</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>0x0036</t>
   </si>
 </sst>
 </file>
@@ -308,6 +332,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -327,7 +419,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,20 +698,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -641,7 +733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -649,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -657,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -665,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -673,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -681,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -689,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -697,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -705,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -713,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -721,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -729,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -737,7 +829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -745,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -753,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -761,7 +853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -769,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -777,7 +869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -785,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -793,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -801,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -809,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -817,12 +909,44 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -834,18 +958,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -853,7 +977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -864,7 +988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>7</v>
@@ -873,7 +997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -882,7 +1006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>9</v>
@@ -891,7 +1015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>11</v>
@@ -900,7 +1024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>12</v>
@@ -909,7 +1033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>13</v>
@@ -918,7 +1042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>14</v>
@@ -927,7 +1051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>15</v>
@@ -936,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>16</v>
@@ -945,7 +1069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>17</v>
@@ -954,7 +1078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>18</v>
@@ -963,7 +1087,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
@@ -972,7 +1096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>24</v>
@@ -981,7 +1105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>25</v>
@@ -990,7 +1114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>26</v>
@@ -999,7 +1123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>27</v>
@@ -1008,7 +1132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>28</v>
@@ -1017,7 +1141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>50</v>
@@ -1026,7 +1150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1037,7 +1161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>20</v>
@@ -1046,7 +1170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>21</v>
@@ -1055,7 +1179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>22</v>
@@ -1064,7 +1188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>23</v>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>变量名称</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>0x0036</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>液压剪刀开关</t>
+  </si>
+  <si>
+    <t>0：关   1：开</t>
   </si>
 </sst>
 </file>
@@ -698,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -853,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -861,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -869,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -877,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -885,7 +894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -893,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -901,7 +910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -909,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -917,7 +926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -925,7 +934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -933,7 +942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -941,12 +950,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>变量名称</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>0：关   1：开</t>
+  </si>
+  <si>
+    <t>0x003A</t>
+  </si>
+  <si>
+    <t>液压电机开关</t>
   </si>
 </sst>
 </file>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,6 +972,17 @@
         <v>89</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
     </row>
